--- a/combo/allcases.xlsx
+++ b/combo/allcases.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+      <selection activeCell="M134" sqref="M134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
